--- a/20200306/Book1.xlsx
+++ b/20200306/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\Heimann\MFIR-AP-2020\20200306\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF85D6-21A9-4896-B288-1256D651F95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DBD26-9271-4C41-9708-8BD56703D6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7128" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{B6C553C9-6292-42ED-A89E-D34256B0E029}"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{B6C553C9-6292-42ED-A89E-D34256B0E029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,14 +386,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1650FCB6-3007-4BD0-9990-99FEA51F8212}">
-  <dimension ref="B3:L23"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" activeCellId="1" sqref="K4 C12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>0.6</v>

--- a/20200306/Book1.xlsx
+++ b/20200306/Book1.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\Heimann\MFIR-AP-2020\20200306\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Igor\Documents\github\MFIR-AP-2020\20200306\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DBD26-9271-4C41-9708-8BD56703D6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F33C51-AB35-42C6-AF92-B72D6228B6CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{B6C553C9-6292-42ED-A89E-D34256B0E029}"/>
+    <workbookView xWindow="1920" yWindow="465" windowWidth="17280" windowHeight="8970" xr2:uid="{B6C553C9-6292-42ED-A89E-D34256B0E029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +92,1053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature vs. distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.672727272727276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.381818181818186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.427272727272726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.527272727272727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.290909090909089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43C2-4723-876D-FFB78A0F91BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="224921695"/>
+        <c:axId val="121538095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="224921695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121538095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121538095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224921695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AD0958-9402-452F-AE5B-FD5A4B605984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,15 +1438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1650FCB6-3007-4BD0-9990-99FEA51F8212}">
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K24" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="C2">
         <v>1</v>
       </c>
@@ -420,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="C3">
         <v>0.6</v>
       </c>
@@ -452,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>1</v>
       </c>
@@ -481,7 +1533,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>2</v>
       </c>
@@ -510,7 +1562,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>3</v>
       </c>
@@ -539,7 +1591,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>4</v>
       </c>
@@ -568,7 +1620,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>5</v>
       </c>
@@ -597,7 +1649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>6</v>
       </c>
@@ -626,7 +1678,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>7</v>
       </c>
@@ -655,7 +1707,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>8</v>
       </c>
@@ -684,7 +1736,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>9</v>
       </c>
@@ -713,7 +1765,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>10</v>
       </c>
@@ -742,7 +1794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>11</v>
       </c>
@@ -771,7 +1823,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>12</v>
       </c>
@@ -800,7 +1852,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>13</v>
       </c>
@@ -829,7 +1881,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17">
         <v>14</v>
       </c>
@@ -858,7 +1910,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18">
         <v>15</v>
       </c>
@@ -887,7 +1939,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>16</v>
       </c>
@@ -916,7 +1968,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20">
         <v>17</v>
       </c>
@@ -945,7 +1997,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21">
         <v>18</v>
       </c>
@@ -974,7 +2026,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1003,7 +2055,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1030,10 +2082,111 @@
       </c>
       <c r="J23">
         <v>26.7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>_xlfn.STDEV.P(C13:C23)</f>
+        <v>0.61831549356843418</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:J24" si="0">_xlfn.STDEV.P(D13:D23)</f>
+        <v>0.83339393719024257</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.7883448504974111</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.61951727408730251</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.90635953313560136</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.78519355933415169</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.7851935593341518</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.71789407354180468</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>1.2</v>
+      </c>
+      <c r="E25">
+        <v>1.8</v>
+      </c>
+      <c r="F25">
+        <v>2.4</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3.6</v>
+      </c>
+      <c r="I25">
+        <v>4.2</v>
+      </c>
+      <c r="J25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:J26" si="1">AVERAGE(C13:C23)</f>
+        <v>32.36363636363636</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>30.818181818181813</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>29.672727272727276</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>28.381818181818186</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>27.427272727272726</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>26.527272727272727</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>26.290909090909089</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>